--- a/output/item/스피커/2021-12-19_스피커.xlsx
+++ b/output/item/스피커/2021-12-19_스피커.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>에이튜브 A450V 진공관 사운드바 스피커</t>
+          <t>브리츠 BZ-505 Roll</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25429469494</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20665125832</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2542946/25429469494.20210218191500.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2066512/20665125832.20190819141404.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,10 +536,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>에이튜브</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>브리츠</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>브리츠</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -567,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>브리츠 BZ-505 Roll</t>
+          <t>에이튜브 A450V 진공관 사운드바 스피커</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20665125832</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25429469494</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2066512/20665125832.20190819141404.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2542946/25429469494.20210218191500.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -598,14 +602,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>브리츠</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>브리츠</t>
-        </is>
-      </c>
+          <t>에이튜브</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19740</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14560</t>
+          <t>14550</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -2143,22 +2143,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>브리츠 BR-1000A2</t>
+          <t>에프엔디 에프앤디 R27BT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7872712963</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23013561490</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7872712/7872712963.20140925112335.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2301356/23013561490.20210528134443.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>79800</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>에프앤디</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>에프엔디</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>에프엔디 에프앤디 R27BT</t>
+          <t>브리츠 BR-1000A2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23013561490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7872712963</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2301356/23013561490.20210528134443.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7872712/7872712963.20140925112335.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>79800</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>에프앤디</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>에프엔디</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18590</t>
+          <t>18580</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>오디오엔진 A2+ Wireless</t>
+          <t>브리츠 Z2100BT Edition</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18591127164</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24727397522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1859112/18591127164.20190416151115.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2472739/24727397522.20201105145232.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>338000</t>
+          <t>37900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>오디오엔진</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>오디오엔진</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2737,22 +2737,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>브리츠 Z2100BT Edition</t>
+          <t>앱코 SP200 Hybrid</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24727397522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21894657996</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2472739/24727397522.20201105145232.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2189465/21894657996.20200303105232.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>37900</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2768,12 +2768,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2803,22 +2803,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>앱코 SP200 Hybrid</t>
+          <t>맥스틸 SB-100</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21894657996</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9856927406</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2189465/21894657996.20200303105232.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9856927/9856927406.20210506155134.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>14300</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2834,12 +2834,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>맥스틸</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>맥스틸</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>맥스틸 SB-100</t>
+          <t>오디오엔진 A2+ Wireless</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9856927406</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18591127164</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9856927/9856927406.20210506155134.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1859112/18591127164.20190416151115.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14310</t>
+          <t>338000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>맥스틸</t>
+          <t>오디오엔진</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>맥스틸</t>
+          <t>오디오엔진</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>548470</t>
+          <t>541090</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3595,22 +3595,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>크리에이티브 GIGAWORKS T20 II</t>
+          <t>캔스톤 NX201 BOSS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5509585915</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17169784911</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5509585/5509585915.20190924144502.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1716978/17169784911.20201231114206.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>128000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>크리에이티브</t>
+          <t>캔스톤</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>크리에이티브</t>
+          <t>캔스톤</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>크리에이티브 GIGAWORKS T40 II</t>
+          <t>크리에이티브 GIGAWORKS T20 II</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5509585925</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5509585915</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5509585/5509585925.20190924144428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5509585/5509585915.20190924144502.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3727,22 +3727,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>캔스톤 NX201 BOSS</t>
+          <t>크리에이티브 GIGAWORKS T40 II</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17169784911</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5509585925</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1716978/17169784911.20201231114206.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5509585/5509585925.20190924144428.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>128000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3758,12 +3758,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>캔스톤</t>
+          <t>크리에이티브</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>캔스톤</t>
+          <t>크리에이티브</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4717,22 +4717,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>몬스타기어 LIVE100 사운드바 usb 스피커</t>
+          <t>캔스톤 ATP-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19030267059</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20665881242</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1903026/19030267059.20210309133924.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2066588/20665881242.20190819153106.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>36900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4748,12 +4748,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>몬스타기어</t>
+          <t>캔스톤</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>몬스타</t>
+          <t>캔스톤</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4783,22 +4783,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>캔스톤 ATP-1</t>
+          <t>몬스타기어 LIVE100 사운드바 usb 스피커</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20665881242</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19030267059</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2066588/20665881242.20190819153106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1903026/19030267059.20210309133924.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>36900</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4814,12 +4814,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>캔스톤</t>
+          <t>몬스타기어</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>캔스톤</t>
+          <t>몬스타</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5047,22 +5047,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>브리츠 BE-100 Soundbar Plus</t>
+          <t>인켈 IK-KS500</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7131613034</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21901171642</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7131613/7131613034.20210928113139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2190117/21901171642.20200313160748.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -5078,12 +5078,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>인켈</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>인켈</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5113,22 +5113,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>몬스타기어 가츠 라이브200 블루투스 사운드바 스피커</t>
+          <t>브리츠 BE-100 Soundbar Plus</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21952153318</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7131613034</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2195215/21952153318.20201210183159.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7131613/7131613034.20210928113139.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>23500</t>
+          <t>26900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>몬스타기어</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>몬스타</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5179,22 +5179,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>인켈 IK-KS500</t>
+          <t>몬스타기어 가츠 라이브200 블루투스 사운드바 스피커</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21901171642</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21952153318</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2190117/21901171642.20200313160748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2195215/21952153318.20201210183159.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5210,12 +5210,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>인켈</t>
+          <t>몬스타기어</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>인켈</t>
+          <t>몬스타</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5773,22 +5773,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>컴소닉 PILLAR CS-50U</t>
+          <t>앱코 S1300</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18340521348</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24513037522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1834052/18340521348.20190327095751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2451303/24513037522.20201019133951.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5804,12 +5804,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>PILLAR</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>컴소닉</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5839,22 +5839,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>앱코 S1300</t>
+          <t>컴소닉 PILLAR CS-50U</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24513037522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18340521348</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2451303/24513037522.20201019133951.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1834052/18340521348.20190327095751.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5870,12 +5870,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>PILLAR</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>컴소닉</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6829,22 +6829,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>다름인터내셔널 디알고 BT-RGB2CH</t>
+          <t>아이리버 IR-S50 WOODEN BLOCK</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29893098619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12442687510</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989309/29893098619.20211130101424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1244268/12442687510.20181002114729.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>29360</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>디알고</t>
+          <t>아이리버</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>다름인터내셔널</t>
+          <t>아이리버</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6895,22 +6895,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>아이리버 IR-S50 WOODEN BLOCK</t>
+          <t>다름인터내셔널 디알고 BT-RGB2CH</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12442687510</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29893098619</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1244268/12442687510.20181002114729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989309/29893098619.20211130101424.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>29360</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6926,12 +6926,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>아이리버</t>
+          <t>디알고</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>아이리버</t>
+          <t>다름인터내셔널</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
